--- a/coderule/note.xlsx
+++ b/coderule/note.xlsx
@@ -14,22 +14,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Đặt tên url thống nhất đặt tiếng việt không dấu và phân cách bởi "-" ở mỗi từ</t>
+    <t>http://localhost:8080/thuebannhadat/nha-dat</t>
   </si>
   <si>
-    <t>Ví dụ: http://localhost:8080/thuebannhadat/trang-chu</t>
+    <t>1) Đặt tên url thống nhất đặt tiếng việt không dấu và phân cách bởi "-" ở mỗi từ</t>
   </si>
   <si>
-    <t>http://localhost:8080/thuebannhadat/nha-dat</t>
+    <t xml:space="preserve">Ví dụ: </t>
+  </si>
+  <si>
+    <t>http://localhost:8080/thuebannhadat/trang-chu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -41,6 +44,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -67,9 +78,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -375,33 +387,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C4"/>
+  <dimension ref="B2:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
+      <c r="D4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
-        <v>2</v>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/coderule/note.xlsx
+++ b/coderule/note.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>http://localhost:8080/thuebannhadat/nha-dat</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>http://localhost:8080/thuebannhadat/trang-chu</t>
+  </si>
+  <si>
+    <t>Mục đích: đặt tiếng việt cho dể SEO</t>
   </si>
 </sst>
 </file>
@@ -387,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D5"/>
+  <dimension ref="B2:D6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,6 +419,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
